--- a/docs/PT1/PT1_30.07.24d_output.xlsx
+++ b/docs/PT1/PT1_30.07.24d_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2534 +505,3000 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731006193.773382</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731006194.823178</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731006193.773382.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731006194.823178.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>287.26</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>287.43</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.1700000000000159</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731006215.9454496</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731006216.3523743</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731006215.9454496.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731006216.3523743.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>131.56</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>130.97</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.5900000000000034</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731006217.6853485</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731006218.9925292</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731006217.6853485.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731006218.9925292.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>131.45</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>132.27</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.8200000000000216</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731006239.3337278</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731006239.3337278.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731006239.3337278.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>133.29</v>
       </c>
-      <c r="J6" t="n">
-        <v>133.29</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" t="n">
+        <v>132.68</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.6099999999999852</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731006240.631741</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731006240.8491583</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006240.631741.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006240.8491583.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6754.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6720.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>34</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731006241.7487543</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731006242.31225</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006241.7487543.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006242.31225.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6733.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6715.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>18</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731006242.473146</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731006242.9558506</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006242.473146.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006242.9558506.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6739</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6727.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>11.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731006244.0835328</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731006244.4594982</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006244.0835328.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006244.4594982.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6747</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6741</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731006245.250038</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731006245.9269722</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006245.250038.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731006245.9269722.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6749</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6741.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>7.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731006264.7533276</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731006265.0066223</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731006264.7533276.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731006265.0066223.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>504.3</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>501.8</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>2.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731006266.467712</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731006268.328921</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731006266.467712.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731006268.328921.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>504.4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>506</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-1.600000000000023</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731006288.8864462</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731006289.1468186</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731006288.8864462.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731006289.1468186.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>1028.2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1023.2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731006311.1262918</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731006311.3178082</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731006311.1262918.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731006311.3178082.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1041.8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1044.8</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731006313.428895</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731006313.65655</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006313.428895.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006313.65655.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>125.52</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>125.14</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731006315.130634</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731006315.5664628</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006315.130634.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006315.5664628.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>125.36</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>125.02</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731006333.347193</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731006334.1314929</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006333.347193.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006334.1314929.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>126.8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>127</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731006334.6032608</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731006334.789106</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006334.6032608.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731006334.789106.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>126.64</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>126.88</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731006337.3190055</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731006337.8521976</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731006337.3190055.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731006337.8521976.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>164.18</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>163.68</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731006341.6154249</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731006342.2449706</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731006341.6154249.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731006342.2449706.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>165.2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>164.84</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3599999999999852</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731006362.698455</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731006363.001646</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006362.698455.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006363.001646.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>51.635</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>51.535</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731006365.1778734</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731006365.8668244</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006365.1778734.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006365.8668244.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>51.595</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>51.565</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731006367.5496955</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731006367.7751207</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006367.5496955.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006367.7751207.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>51.625</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>51.12</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.5050000000000026</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731006373.4772358</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731006373.8291712</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006373.4772358.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006373.8291712.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>51.265</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>51.145</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731006374.8495667</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731006375.7169836</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006374.8495667.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006375.7169836.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>51.23</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>51.155</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.07499999999999574</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731006376.3223639</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731006376.8305984</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006376.3223639.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006376.8305984.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>51.315</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>51.245</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731006382.3017168</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731006383.0857353</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006382.3017168.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006383.0857353.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>51.375</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>51.51</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.134999999999998</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731006385.487123</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731006386.092022</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006385.487123.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731006386.092022.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>51.505</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>51.46</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.04500000000000171</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731006387.297309</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731006387.90224</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006387.297309.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006387.90224.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1407.6</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>4.800000000000182</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731006388.3520355</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731006390.0865057</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006388.3520355.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006390.0865057.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1418</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1422.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-4.599999999999909</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731006409.4765155</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731006409.9687638</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006409.4765155.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731006409.9687638.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1420</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1419.2</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731006411.6297781</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731006411.808299</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006411.6297781.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006411.808299.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>60.16</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>59.86</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.2999999999999972</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731006412.623617</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731006413.050478</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006412.623617.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006413.050478.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>60.16</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>59.86</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.2999999999999972</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731006431.865707</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731006432.4087925</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006431.865707.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731006432.4087925.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>60.61</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>60.75</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731006435.956689</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731006436.2080154</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/SELG1731006435.956689.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/SELG1731006436.2080154.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>56.27</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>55.91</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.3600000000000065</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731006449.6355705</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731006450.4946275</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731006449.6355705.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731006450.4946275.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>56.91</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>56.94</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731006462.3974113</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731006463.438473</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731006462.3974113.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731006463.438473.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>141.02</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>141.38</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.3599999999999852</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731006465.6557937</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731006466.165965</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731006465.6557937.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731006466.165965.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>140.62</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>140.94</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731006472.8355875</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731006473.4719124</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731006472.8355875.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731006473.4719124.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>141</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>141.62</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.6200000000000045</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731006479.2525127</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731006480.5887475</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731006479.2525127.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731006480.5887475.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>141.36</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>141.24</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731006482.6434948</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731006484.2512782</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731006482.6434948.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731006484.2512782.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>52.58</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>52.59</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731006505.9406095</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731006506.1899147</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006505.9406095.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006506.1899147.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>367.49</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>364.03</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>3.460000000000036</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.9400000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731006507.6481404</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731006508.9587312</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006507.6481404.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731006508.9587312.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>365.78</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>367.81</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-2.03000000000003</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731006529.0668285</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731006529.3750782</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006529.0668285.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006529.3750782.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>0.09606000000000001</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>0.09588000000000001</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.0001799999999999996</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731006530.6437511</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731006531.0924964</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006530.6437511.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006531.0924964.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>0.09616000000000001</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>0.09578</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.0003800000000000053</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731006532.7450986</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731006532.9186637</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006532.7450986.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006532.9186637.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>0.09636</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>0.09616000000000001</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.0001999999999999919</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731006533.0154083</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731006533.9619188</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006533.0154083.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/FEES1731006533.9619188.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>0.09638000000000001</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>0.09630000000000001</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>7.999999999999674e-05</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731006551.7448242</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731006552.1078517</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731006551.7448242.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731006552.1078517.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>2988.65</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>2980.45</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>8.200000000000273</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731006553.3790236</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731006554.9154325</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731006553.3790236.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731006554.9154325.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>2990.75</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>3001.65</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-10.90000000000009</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731006573.271106</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731006573.5456307</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731006573.271106.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731006573.5456307.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>3010.25</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>3012.9</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>2.650000000000091</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731006580.032576</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731006580.6532307</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731006580.032576.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731006580.6532307.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>34.56</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>34.435</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.125</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731006583.8212652</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731006585.1053436</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731006583.8212652.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731006585.1053436.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>34.63</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>34.74</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.1099999999999994</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -3031,7 +3512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3055,6 +3536,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3068,6 +3564,15 @@
       <c r="C2" t="n">
         <v>8</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.1012500000000003</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3081,6 +3586,15 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3094,6 +3608,15 @@
       <c r="C4" t="n">
         <v>4</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.0002099999999999984</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3107,6 +3630,15 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.2899999999999991</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3120,6 +3652,15 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.2949999999999946</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3133,6 +3674,15 @@
       <c r="C7" t="n">
         <v>3</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.01666666666657572</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.775557561562891e-17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3146,6 +3696,15 @@
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.3333333333334091</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3154,11 +3713,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2300000000000182</v>
+        <v>-0.8400000000000034</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.2800000000000011</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3172,6 +3740,15 @@
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.246666666666665</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3185,6 +3762,15 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.1950000000000038</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3198,6 +3784,15 @@
       <c r="C12" t="n">
         <v>2</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.7150000000000034</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3900000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3211,6 +3806,15 @@
       <c r="C13" t="n">
         <v>2</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.4299999999999926</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3224,6 +3828,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3237,6 +3850,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.4499999999999886</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3250,6 +3872,15 @@
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.007500000000000284</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.03999999999999998</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3263,6 +3894,15 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.01000000000000512</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3276,6 +3916,15 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.1700000000000159</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3289,6 +3938,11 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
